--- a/data/import_template/template.xlsx
+++ b/data/import_template/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\web\wc\wc\data\import_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\develop\other\wc-master2\wc\data\import_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="客户基本信息" sheetId="3" r:id="rId1"/>
@@ -4669,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -6646,7 +6646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
